--- a/Gen.Att.dic.xlsx
+++ b/Gen.Att.dic.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24816"/>
   <workbookPr filterPrivacy="1" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="0" windowWidth="24820" windowHeight="15620"/>
+    <workbookView xWindow="3220" yWindow="0" windowWidth="24820" windowHeight="15620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="通用属性词典" sheetId="5" r:id="rId1"/>
@@ -5564,8 +5564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -9186,8 +9186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26:H26"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
